--- a/exe6 codigos.xlsx
+++ b/exe6 codigos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\GitHub\ccd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F20F68-571F-419A-A977-54E255F30B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271807A7-8F0E-42B2-BCFE-E3B4F67E02DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1A76850-7184-4E0F-8990-C43B305904A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1A76850-7184-4E0F-8990-C43B305904A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="39">
   <si>
     <t>A</t>
   </si>
@@ -127,38 +127,38 @@
     <t>a</t>
   </si>
   <si>
-    <t>cod1</t>
-  </si>
-  <si>
-    <t>cod2</t>
-  </si>
-  <si>
-    <t>cod3</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>cod4</t>
-  </si>
-  <si>
     <t>1100</t>
   </si>
   <si>
     <t>1101</t>
   </si>
   <si>
-    <t>cod5</t>
-  </si>
-  <si>
     <t>Comp. Médio</t>
+  </si>
+  <si>
+    <t>Arvore 1</t>
+  </si>
+  <si>
+    <t>Arvore 2</t>
+  </si>
+  <si>
+    <t>Arvore 3</t>
+  </si>
+  <si>
+    <t>Arvore 4</t>
+  </si>
+  <si>
+    <t>Arvore 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,16 +197,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,12 +224,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,18 +521,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3BDA83-3FCE-4A1F-94C6-29714DEBC890}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -546,12 +552,12 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -576,9 +582,9 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -603,9 +609,9 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
@@ -614,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -630,21 +636,21 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>23</v>
@@ -657,9 +663,9 @@
         <v>3.1666666666666665</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -684,7 +690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -692,7 +698,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -700,7 +706,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -708,23 +714,475 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="3">
+        <f>0.5*0.25</f>
+        <v>0.125</v>
+      </c>
+      <c r="E20" s="3">
+        <f>0.5*D20</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ref="F20:G20" si="0">0.5*E20</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <f>0.5*F20</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="3">
+        <f>0.125</f>
+        <v>0.125</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" ref="C21:G24" si="1">0.125</f>
+        <v>0.125</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B11*B20</f>
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:G29" si="2">C11*C20</f>
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <f>SUM(B29:G29)</f>
+        <v>1.84375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B12*B21</f>
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="B30:G30" si="3">C12*C21</f>
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30:H33" si="4">SUM(B30:G30)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" ref="B31:G31" si="5">B13*B22</f>
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" ref="B32:G32" si="6">B14*B23</f>
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="1">
+        <f>F14*F23</f>
+        <v>0.25</v>
+      </c>
+      <c r="G32" s="1">
+        <f>G14*G23</f>
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" ref="B33:G33" si="7">B15*B24</f>
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="4"/>
+        <v>2.125</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -737,16 +1195,16 @@
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="6" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -763,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -783,7 +1241,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -803,7 +1261,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -823,7 +1281,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -843,7 +1301,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -863,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -886,7 +1344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3.3333333330000001</v>
       </c>
@@ -915,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
@@ -934,7 +1392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>0</v>
       </c>
@@ -963,7 +1421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -992,7 +1450,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -1021,7 +1479,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1508,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>5</v>
       </c>
